--- a/biology/Zoologie/Ludwig_Imhoff/Ludwig_Imhoff.xlsx
+++ b/biology/Zoologie/Ludwig_Imhoff/Ludwig_Imhoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Imhoff est un entomologiste suisse, né le 21 octobre 1801 à Bâle et mort le 13 septembre 1868 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un commerçant, il étudie la médecine à Bâle, à Strasbourg, à Heidelberg, à Halle et à Berlin. Il obtient son doctorat en 1826 à Bâle où il commence à exercer. Il enseigne la zoologie de 1827 à 1866 à l’université de la ville. Il se spécialise sur l’étude des insectes hyménoptères. Il reçoit un titre de docteur honoris causa en 1836.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(fr) « Imhoff, Ludwig » dans le Dictionnaire historique de la Suisse en ligne.</t>
         </is>
